--- a/Python/lambor_Inputbox_GSRK-XGTC.xlsx
+++ b/Python/lambor_Inputbox_GSRK-XGTC.xlsx
@@ -29,43 +29,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[3]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[3]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[2]/a[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[1]/input</t>
   </si>
   <si>
     <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[2]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[3]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[3]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[2]/a[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[2]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +392,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,42 +411,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Python/lambor_Inputbox_GSRK-XGTC.xlsx
+++ b/Python/lambor_Inputbox_GSRK-XGTC.xlsx
@@ -37,33 +37,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[2]/a[2]</t>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[2]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[5]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[2]/div[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[2]/div[2]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[4]/div[2]/div[3]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +390,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,18 +409,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -435,18 +433,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
